--- a/时间统计/预期计划统计表-2019-4-15~2019-4-11.xlsx
+++ b/时间统计/预期计划统计表-2019-4-15~2019-4-11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CodeRepository\TheRoadToTheFuture\时间管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CodeRepositories\TheRoadToTheFuture\时间统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C714FD-5344-4ED5-949D-826904307849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="星期一" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>时间\星期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,13 +128,61 @@
   </si>
   <si>
     <t>洗漱等个人事务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看电视剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备回家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃零食，接电话等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,10 +241,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -556,6 +605,12 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -564,6 +619,12 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -572,6 +633,12 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -580,6 +647,12 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -588,38 +661,74 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -628,174 +737,299 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.5625</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.625</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.6875</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.75</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.79166666666666696</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.8125</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.875</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.91666666666666696</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.9375</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -803,8 +1037,8 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1053,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1293,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
